--- a/public_list/20161101_20161130_public_list.xlsx
+++ b/public_list/20161101_20161130_public_list.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Downloads\src\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="14280"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="348">
   <si>
     <t>nid</t>
   </si>
@@ -1064,17 +1068,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1082,28 +1090,38 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1393,19 +1411,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="44.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1421,7 +1444,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -1437,7 +1460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10119645</v>
       </c>
@@ -1453,7 +1476,7 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>20161102000000</v>
       </c>
       <c r="G2" t="s">
@@ -1469,7 +1492,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10119646</v>
       </c>
@@ -1485,7 +1508,7 @@
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>20161102000000</v>
       </c>
       <c r="G3" t="s">
@@ -1501,7 +1524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10119647</v>
       </c>
@@ -1517,7 +1540,7 @@
       <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>20161102000000</v>
       </c>
       <c r="G4" t="s">
@@ -1533,7 +1556,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10119648</v>
       </c>
@@ -1549,7 +1572,7 @@
       <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>20161102000000</v>
       </c>
       <c r="G5" t="s">
@@ -1565,7 +1588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10133369</v>
       </c>
@@ -1581,7 +1604,7 @@
       <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>20161102142818</v>
       </c>
       <c r="G6" t="s">
@@ -1597,7 +1620,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10133371</v>
       </c>
@@ -1613,7 +1636,7 @@
       <c r="E7" t="s">
         <v>30</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>20161102143431</v>
       </c>
       <c r="G7" t="s">
@@ -1629,7 +1652,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10133372</v>
       </c>
@@ -1645,7 +1668,7 @@
       <c r="E8" t="s">
         <v>30</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>20161102143728</v>
       </c>
       <c r="G8" t="s">
@@ -1661,7 +1684,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10134333</v>
       </c>
@@ -1677,7 +1700,7 @@
       <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>20161102180053</v>
       </c>
       <c r="G9" t="s">
@@ -1693,7 +1716,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10134334</v>
       </c>
@@ -1709,7 +1732,7 @@
       <c r="E10" t="s">
         <v>30</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>20161102180311</v>
       </c>
       <c r="G10" t="s">
@@ -1725,7 +1748,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10134335</v>
       </c>
@@ -1741,7 +1764,7 @@
       <c r="E11" t="s">
         <v>30</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>20161102180722</v>
       </c>
       <c r="G11" t="s">
@@ -1757,7 +1780,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10134336</v>
       </c>
@@ -1773,7 +1796,7 @@
       <c r="E12" t="s">
         <v>30</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>20161102180850</v>
       </c>
       <c r="G12" t="s">
@@ -1789,7 +1812,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10134338</v>
       </c>
@@ -1805,7 +1828,7 @@
       <c r="E13" t="s">
         <v>30</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>20161102180929</v>
       </c>
       <c r="G13" t="s">
@@ -1821,7 +1844,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10134339</v>
       </c>
@@ -1837,7 +1860,7 @@
       <c r="E14" t="s">
         <v>30</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>20161102180948</v>
       </c>
       <c r="G14" t="s">
@@ -1853,7 +1876,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10134340</v>
       </c>
@@ -1869,7 +1892,7 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>20161102181254</v>
       </c>
       <c r="G15" t="s">
@@ -1885,7 +1908,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10134341</v>
       </c>
@@ -1901,7 +1924,7 @@
       <c r="E16" t="s">
         <v>30</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>20161102181335</v>
       </c>
       <c r="G16" t="s">
@@ -1917,7 +1940,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10134342</v>
       </c>
@@ -1933,7 +1956,7 @@
       <c r="E17" t="s">
         <v>30</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>20161102181548</v>
       </c>
       <c r="G17" t="s">
@@ -1949,7 +1972,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10134343</v>
       </c>
@@ -1965,7 +1988,7 @@
       <c r="E18" t="s">
         <v>30</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>20161102181759</v>
       </c>
       <c r="G18" t="s">
@@ -1981,7 +2004,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10134344</v>
       </c>
@@ -1997,7 +2020,7 @@
       <c r="E19" t="s">
         <v>30</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>20161102181920</v>
       </c>
       <c r="G19" t="s">
@@ -2013,7 +2036,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10134345</v>
       </c>
@@ -2029,7 +2052,7 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>20161102182343</v>
       </c>
       <c r="G20" t="s">
@@ -2045,7 +2068,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10134348</v>
       </c>
@@ -2061,7 +2084,7 @@
       <c r="E21" t="s">
         <v>30</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>20161102183246</v>
       </c>
       <c r="G21" t="s">
@@ -2077,7 +2100,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10134349</v>
       </c>
@@ -2093,7 +2116,7 @@
       <c r="E22" t="s">
         <v>93</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>20161102183547</v>
       </c>
       <c r="G22" t="s">
@@ -2109,7 +2132,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10134350</v>
       </c>
@@ -2125,7 +2148,7 @@
       <c r="E23" t="s">
         <v>30</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>20161102183559</v>
       </c>
       <c r="G23" t="s">
@@ -2141,7 +2164,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10135495</v>
       </c>
@@ -2157,7 +2180,7 @@
       <c r="E24" t="s">
         <v>101</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>20161102193037</v>
       </c>
       <c r="G24" t="s">
@@ -2173,7 +2196,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10135503</v>
       </c>
@@ -2189,7 +2212,7 @@
       <c r="E25" t="s">
         <v>107</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>20161103095631</v>
       </c>
       <c r="G25" t="s">
@@ -2205,7 +2228,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10147610</v>
       </c>
@@ -2221,7 +2244,7 @@
       <c r="E26" t="s">
         <v>114</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>20161103131624</v>
       </c>
       <c r="G26" t="s">
@@ -2237,7 +2260,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10147611</v>
       </c>
@@ -2253,7 +2276,7 @@
       <c r="E27" t="s">
         <v>114</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>20161103000000</v>
       </c>
       <c r="G27" t="s">
@@ -2269,7 +2292,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10147612</v>
       </c>
@@ -2285,7 +2308,7 @@
       <c r="E28" t="s">
         <v>114</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>20161103132448</v>
       </c>
       <c r="G28" t="s">
@@ -2301,7 +2324,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10147613</v>
       </c>
@@ -2317,7 +2340,7 @@
       <c r="E29" t="s">
         <v>128</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>20161103133359</v>
       </c>
       <c r="G29" t="s">
@@ -2333,7 +2356,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10162105</v>
       </c>
@@ -2349,7 +2372,7 @@
       <c r="E30" t="s">
         <v>134</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>20161104142639</v>
       </c>
       <c r="G30" t="s">
@@ -2365,7 +2388,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10162110</v>
       </c>
@@ -2381,7 +2404,7 @@
       <c r="E31" t="s">
         <v>139</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>20161104145316</v>
       </c>
       <c r="G31" t="s">
@@ -2397,7 +2420,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10162111</v>
       </c>
@@ -2413,7 +2436,7 @@
       <c r="E32" t="s">
         <v>139</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <v>20161104145451</v>
       </c>
       <c r="G32" t="s">
@@ -2429,7 +2452,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10162113</v>
       </c>
@@ -2445,7 +2468,7 @@
       <c r="E33" t="s">
         <v>150</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>20161104000000</v>
       </c>
       <c r="G33" t="s">
@@ -2461,7 +2484,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10162965</v>
       </c>
@@ -2477,7 +2500,7 @@
       <c r="E34" t="s">
         <v>157</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>20161104181358</v>
       </c>
       <c r="G34" t="s">
@@ -2493,7 +2516,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10162967</v>
       </c>
@@ -2509,7 +2532,7 @@
       <c r="E35" t="s">
         <v>164</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <v>20161104181508</v>
       </c>
       <c r="G35" t="s">
@@ -2525,7 +2548,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10176343</v>
       </c>
@@ -2541,7 +2564,7 @@
       <c r="E36" t="s">
         <v>170</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <v>20161106155006</v>
       </c>
       <c r="G36" t="s">
@@ -2557,7 +2580,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10176352</v>
       </c>
@@ -2573,7 +2596,7 @@
       <c r="E37" t="s">
         <v>176</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1">
         <v>20161107101204</v>
       </c>
       <c r="G37" t="s">
@@ -2589,7 +2612,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10176354</v>
       </c>
@@ -2605,7 +2628,7 @@
       <c r="E38" t="s">
         <v>182</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
         <v>20161107101404</v>
       </c>
       <c r="G38" t="s">
@@ -2621,7 +2644,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10176357</v>
       </c>
@@ -2637,7 +2660,7 @@
       <c r="E39" t="s">
         <v>188</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="1">
         <v>20161107111751</v>
       </c>
       <c r="G39" t="s">
@@ -2653,7 +2676,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10176358</v>
       </c>
@@ -2669,7 +2692,7 @@
       <c r="E40" t="s">
         <v>188</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="1">
         <v>20161107112440</v>
       </c>
       <c r="G40" t="s">
@@ -2685,7 +2708,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>10176359</v>
       </c>
@@ -2701,7 +2724,7 @@
       <c r="E41" t="s">
         <v>188</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="1">
         <v>20161107112912</v>
       </c>
       <c r="G41" t="s">
@@ -2717,7 +2740,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>10176360</v>
       </c>
@@ -2733,7 +2756,7 @@
       <c r="E42" t="s">
         <v>188</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="1">
         <v>20161107113849</v>
       </c>
       <c r="G42" t="s">
@@ -2749,7 +2772,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>10176361</v>
       </c>
@@ -2765,7 +2788,7 @@
       <c r="E43" t="s">
         <v>188</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="1">
         <v>20161107114317</v>
       </c>
       <c r="G43" t="s">
@@ -2781,7 +2804,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>10176362</v>
       </c>
@@ -2797,7 +2820,7 @@
       <c r="E44" t="s">
         <v>188</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="1">
         <v>20161107114654</v>
       </c>
       <c r="G44" t="s">
@@ -2813,7 +2836,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10176640</v>
       </c>
@@ -2829,7 +2852,7 @@
       <c r="E45" t="s">
         <v>188</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="1">
         <v>20161107141334</v>
       </c>
       <c r="G45" t="s">
@@ -2845,7 +2868,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10176644</v>
       </c>
@@ -2861,7 +2884,7 @@
       <c r="E46" t="s">
         <v>188</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="1">
         <v>20161107144003</v>
       </c>
       <c r="G46" t="s">
@@ -2877,7 +2900,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10177663</v>
       </c>
@@ -2893,7 +2916,7 @@
       <c r="E47" t="s">
         <v>157</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="1">
         <v>20161107000000</v>
       </c>
       <c r="G47" t="s">
@@ -2909,7 +2932,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>10177664</v>
       </c>
@@ -2925,7 +2948,7 @@
       <c r="E48" t="s">
         <v>220</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="1">
         <v>20161107202729</v>
       </c>
       <c r="G48" t="s">
@@ -2941,7 +2964,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>10177667</v>
       </c>
@@ -2957,7 +2980,7 @@
       <c r="E49" t="s">
         <v>220</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="1">
         <v>20161107212412</v>
       </c>
       <c r="G49" t="s">
@@ -2973,7 +2996,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>10177675</v>
       </c>
@@ -2989,7 +3012,7 @@
       <c r="E50" t="s">
         <v>229</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="1">
         <v>20161108104307</v>
       </c>
       <c r="G50" t="s">
@@ -3005,7 +3028,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10177683</v>
       </c>
@@ -3021,7 +3044,7 @@
       <c r="E51" t="s">
         <v>234</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="1">
         <v>20161108112501</v>
       </c>
       <c r="G51" t="s">
@@ -3037,7 +3060,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>10191249</v>
       </c>
@@ -3053,7 +3076,7 @@
       <c r="E52" t="s">
         <v>240</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="1">
         <v>20161108000000</v>
       </c>
       <c r="G52" t="s">
@@ -3069,7 +3092,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>10191252</v>
       </c>
@@ -3085,7 +3108,7 @@
       <c r="E53" t="s">
         <v>234</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="1">
         <v>20161108145548</v>
       </c>
       <c r="G53" t="s">
@@ -3101,7 +3124,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>10192354</v>
       </c>
@@ -3117,7 +3140,7 @@
       <c r="E54" t="s">
         <v>252</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="1">
         <v>20161108205309</v>
       </c>
       <c r="G54" t="s">
@@ -3133,7 +3156,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>10192361</v>
       </c>
@@ -3149,7 +3172,7 @@
       <c r="E55" t="s">
         <v>258</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="1">
         <v>20161109101855</v>
       </c>
       <c r="G55" t="s">
@@ -3165,7 +3188,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>10192368</v>
       </c>
@@ -3181,7 +3204,7 @@
       <c r="E56" t="s">
         <v>182</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="1">
         <v>20161109114202</v>
       </c>
       <c r="G56" t="s">
@@ -3197,7 +3220,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>10206382</v>
       </c>
@@ -3213,7 +3236,7 @@
       <c r="E57" t="s">
         <v>269</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="1">
         <v>20161109000000</v>
       </c>
       <c r="G57" t="s">
@@ -3229,7 +3252,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>10206384</v>
       </c>
@@ -3245,7 +3268,7 @@
       <c r="E58" t="s">
         <v>274</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="1">
         <v>20161109131418</v>
       </c>
       <c r="G58" t="s">
@@ -3261,7 +3284,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>10207495</v>
       </c>
@@ -3277,7 +3300,7 @@
       <c r="E59" t="s">
         <v>280</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="1">
         <v>20161110094022</v>
       </c>
       <c r="G59" t="s">
@@ -3293,7 +3316,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>10208494</v>
       </c>
@@ -3309,7 +3332,7 @@
       <c r="E60" t="s">
         <v>286</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="1">
         <v>20161110110115</v>
       </c>
       <c r="G60" t="s">
@@ -3325,7 +3348,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>10220189</v>
       </c>
@@ -3341,7 +3364,7 @@
       <c r="E61" t="s">
         <v>292</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="1">
         <v>20161110155507</v>
       </c>
       <c r="G61" t="s">
@@ -3357,7 +3380,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>10220223</v>
       </c>
@@ -3373,7 +3396,7 @@
       <c r="E62" t="s">
         <v>298</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="1">
         <v>20161111100242</v>
       </c>
       <c r="G62" t="s">
@@ -3389,7 +3412,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>10220232</v>
       </c>
@@ -3405,7 +3428,7 @@
       <c r="E63" t="s">
         <v>298</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="1">
         <v>20161111113203</v>
       </c>
       <c r="G63" t="s">
@@ -3421,7 +3444,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>10220302</v>
       </c>
@@ -3437,7 +3460,7 @@
       <c r="E64" t="s">
         <v>128</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="1">
         <v>20161111150951</v>
       </c>
       <c r="G64" t="s">
@@ -3453,7 +3476,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>10234380</v>
       </c>
@@ -3469,7 +3492,7 @@
       <c r="E65" t="s">
         <v>310</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="1">
         <v>20161111000000</v>
       </c>
       <c r="G65" t="s">
@@ -3485,7 +3508,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>10247939</v>
       </c>
@@ -3501,7 +3524,7 @@
       <c r="E66" t="s">
         <v>315</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="1">
         <v>20161113143002</v>
       </c>
       <c r="G66" t="s">
@@ -3517,7 +3540,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>10277335</v>
       </c>
@@ -3533,7 +3556,7 @@
       <c r="E67" t="s">
         <v>134</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="1">
         <v>20161116173110</v>
       </c>
       <c r="G67" t="s">
@@ -3549,7 +3572,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>10317451</v>
       </c>
@@ -3565,7 +3588,7 @@
       <c r="E68" t="s">
         <v>325</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="1">
         <v>20161121153001</v>
       </c>
       <c r="G68" t="s">
@@ -3581,7 +3604,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>10332871</v>
       </c>
@@ -3597,7 +3620,7 @@
       <c r="E69" t="s">
         <v>331</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="1">
         <v>20161123000000</v>
       </c>
       <c r="G69" t="s">
@@ -3613,7 +3636,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>10359215</v>
       </c>
@@ -3629,7 +3652,7 @@
       <c r="E70" t="s">
         <v>337</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="1">
         <v>20161124134113</v>
       </c>
       <c r="G70" t="s">
@@ -3645,7 +3668,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>10388339</v>
       </c>
@@ -3661,7 +3684,7 @@
       <c r="E71" t="s">
         <v>258</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="1">
         <v>20161128172049</v>
       </c>
       <c r="G71" t="s">
@@ -3677,7 +3700,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>10388342</v>
       </c>
@@ -3693,7 +3716,7 @@
       <c r="E72" t="s">
         <v>258</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="1">
         <v>20161129102403</v>
       </c>
       <c r="G72" t="s">
@@ -3710,17 +3733,9 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>